--- a/SS_dataV6.xlsx
+++ b/SS_dataV6.xlsx
@@ -8,32 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAFCD3F-5B50-47AD-98D0-D9E9B8D4E5BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC103B3-50DC-40E3-8A49-316617FC9400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="897" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
     <sheet name="Components i" sheetId="6" r:id="rId2"/>
     <sheet name="Utilities u" sheetId="7" r:id="rId3"/>
     <sheet name="SF a,j,k,i" sheetId="2" r:id="rId4"/>
-    <sheet name="EC a,j,k" sheetId="3" r:id="rId5"/>
-    <sheet name="Flow0 i" sheetId="4" r:id="rId6"/>
-    <sheet name="Tau a,j,k,u" sheetId="8" r:id="rId7"/>
-    <sheet name="Q a,j,k,i" sheetId="20" r:id="rId8"/>
-    <sheet name="Temperature a,j,k" sheetId="10" r:id="rId9"/>
-    <sheet name="CP i" sheetId="11" r:id="rId10"/>
-    <sheet name="HeatT a,j,k" sheetId="12" r:id="rId11"/>
-    <sheet name="EfficiencyH a,j,k" sheetId="13" r:id="rId12"/>
-    <sheet name="ReferenceCost a,j,k" sheetId="14" r:id="rId13"/>
-    <sheet name="ReferenceSize a,j,k" sheetId="16" r:id="rId14"/>
-    <sheet name="ReferenceIndex a,j,k" sheetId="17" r:id="rId15"/>
-    <sheet name="SizingFactor a,j,k" sheetId="15" r:id="rId16"/>
-    <sheet name="SpecificCostU u" sheetId="19" r:id="rId17"/>
-    <sheet name="CompCost i" sheetId="21" r:id="rId18"/>
-    <sheet name="SingleConstants" sheetId="18" r:id="rId19"/>
+    <sheet name="Q a,j,k,i" sheetId="20" r:id="rId5"/>
+    <sheet name="Tau a,j,k,u" sheetId="22" r:id="rId6"/>
+    <sheet name="EC a,j,k" sheetId="3" r:id="rId7"/>
+    <sheet name="Temperature a,j,k" sheetId="10" r:id="rId8"/>
+    <sheet name="ReferenceCost a,j,k" sheetId="14" r:id="rId9"/>
+    <sheet name="ReferenceSize a,j,k" sheetId="16" r:id="rId10"/>
+    <sheet name="ReferenceIndex a,j,k" sheetId="17" r:id="rId11"/>
+    <sheet name="SizingFactor a,j,k" sheetId="15" r:id="rId12"/>
+    <sheet name="Flow0 i" sheetId="4" r:id="rId13"/>
+    <sheet name="CP i" sheetId="11" r:id="rId14"/>
+    <sheet name="CompCost i" sheetId="21" r:id="rId15"/>
+    <sheet name="SpecificCostU u" sheetId="19" r:id="rId16"/>
+    <sheet name="SingleConstants" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
   <si>
     <t>j</t>
   </si>
@@ -139,6 +138,12 @@
   </si>
   <si>
     <t>IDX2020</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
@@ -732,7 +737,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1071,78 +1076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879FE587-3BB9-4285-A244-F51880842FF4}">
-  <dimension ref="A3:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5329C9A-0D09-4163-94DE-93A3B4B570EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1341,12 +1279,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4F6867-2792-4405-ADF3-A1AC2FFDC93A}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V6"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1545,12 +1483,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1749,624 +1687,243 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
-  <dimension ref="A2:V6"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170294-30C4-4AD3-BC12-771BD8A4BF77}">
+  <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V6"/>
+      <selection activeCell="A3" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
-        <v>4</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>529.20000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>374.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15">
-        <v>3</v>
-      </c>
-      <c r="F3" s="15">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="I3" s="10">
-        <v>3</v>
-      </c>
-      <c r="J3" s="12">
-        <v>4</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2</v>
-      </c>
-      <c r="M3" s="13">
-        <v>3</v>
-      </c>
-      <c r="N3" s="15">
-        <v>4</v>
-      </c>
-      <c r="O3" s="14">
-        <v>1</v>
-      </c>
-      <c r="P3" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>3</v>
-      </c>
-      <c r="R3" s="15">
-        <v>4</v>
-      </c>
-      <c r="S3" s="14">
-        <v>1</v>
-      </c>
-      <c r="T3" s="15">
-        <v>2</v>
-      </c>
-      <c r="U3" s="15">
-        <v>3</v>
-      </c>
-      <c r="V3" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
+      <c r="C6" s="9">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879FE587-3BB9-4285-A244-F51880842FF4}">
+  <dimension ref="A3:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
-  <dimension ref="A2:V6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1D6DE6-BAE5-47D9-BFCB-7E8B5C18AB99}">
+  <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
-        <v>4</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15">
-        <v>3</v>
-      </c>
-      <c r="F3" s="15">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="I3" s="10">
-        <v>3</v>
-      </c>
-      <c r="J3" s="12">
-        <v>4</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2</v>
-      </c>
-      <c r="M3" s="13">
-        <v>3</v>
-      </c>
-      <c r="N3" s="15">
-        <v>4</v>
-      </c>
-      <c r="O3" s="14">
-        <v>1</v>
-      </c>
-      <c r="P3" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>3</v>
-      </c>
-      <c r="R3" s="15">
-        <v>4</v>
-      </c>
-      <c r="S3" s="14">
-        <v>1</v>
-      </c>
-      <c r="T3" s="15">
-        <v>2</v>
-      </c>
-      <c r="U3" s="15">
-        <v>3</v>
-      </c>
-      <c r="V3" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F286E7-365E-4CD4-97CA-BA6EEF12D309}">
-  <dimension ref="A2:V6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
-        <v>4</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
-        <v>5</v>
-      </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15">
-        <v>3</v>
-      </c>
-      <c r="F3" s="15">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="I3" s="10">
-        <v>3</v>
-      </c>
-      <c r="J3" s="12">
-        <v>4</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2</v>
-      </c>
-      <c r="M3" s="13">
-        <v>3</v>
-      </c>
-      <c r="N3" s="15">
-        <v>4</v>
-      </c>
-      <c r="O3" s="14">
-        <v>1</v>
-      </c>
-      <c r="P3" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>3</v>
-      </c>
-      <c r="R3" s="15">
-        <v>4</v>
-      </c>
-      <c r="S3" s="14">
-        <v>1</v>
-      </c>
-      <c r="T3" s="15">
-        <v>2</v>
-      </c>
-      <c r="U3" s="15">
-        <v>3</v>
-      </c>
-      <c r="V3" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9531EC-CA23-40AE-B9E3-0DD65FEE9D1D}">
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,7 +1942,9 @@
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
@@ -2394,7 +1953,9 @@
       <c r="B5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
@@ -2403,86 +1964,21 @@
       <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1D6DE6-BAE5-47D9-BFCB-7E8B5C18AB99}">
-  <dimension ref="A3:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A225510A-AA85-4DB0-9F23-80E69C775E1F}">
-  <dimension ref="A3:C5"/>
+  <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2509,6 +2005,16 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +2027,7 @@
   <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3982,6 +3488,2354 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
+  <dimension ref="A2:BJ9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="8"/>
+    <col min="2" max="2" width="8.88671875" style="8" customWidth="1"/>
+    <col min="3" max="5" width="8.88671875" style="8"/>
+    <col min="6" max="8" width="8.88671875" style="8" customWidth="1"/>
+    <col min="9" max="14" width="8.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="15" max="35" width="8.88671875" style="8"/>
+    <col min="36" max="38" width="8.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="39" max="47" width="8.88671875" style="8"/>
+    <col min="48" max="50" width="8.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="51" max="53" width="8.88671875" style="8"/>
+    <col min="54" max="62" width="8.88671875" style="8" hidden="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="20">
+        <v>2</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="27">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="19"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
+        <v>4</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="15">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
+        <v>0</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15">
+        <v>0</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
+        <v>0</v>
+      </c>
+      <c r="X8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0</v>
+      </c>
+      <c r="V9" s="9">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0</v>
+      </c>
+      <c r="X9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>11</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="9">
+        <v>11</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="9">
+        <v>11</v>
+      </c>
+      <c r="AQ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD4AB89-B12D-4586-BEC8-F556A2325B16}">
+  <dimension ref="A2:BJ7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:Z8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="36" max="38" width="0" hidden="1" customWidth="1"/>
+    <col min="48" max="50" width="0" hidden="1" customWidth="1"/>
+    <col min="54" max="62" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="20">
+        <v>2</v>
+      </c>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="27">
+        <v>4</v>
+      </c>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
+      <c r="AS2" s="28"/>
+      <c r="AT2" s="28"/>
+      <c r="AU2" s="28"/>
+      <c r="AV2" s="28"/>
+      <c r="AW2" s="28"/>
+      <c r="AX2" s="29"/>
+      <c r="AY2" s="17">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="19"/>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
+        <v>4</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11">
+        <v>3</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="11">
+        <v>3</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="11">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>3</v>
+      </c>
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>3</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1</v>
+      </c>
+      <c r="S4" s="11">
+        <v>2</v>
+      </c>
+      <c r="T4" s="11">
+        <v>3</v>
+      </c>
+      <c r="U4" s="10">
+        <v>1</v>
+      </c>
+      <c r="V4" s="10">
+        <v>2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>3</v>
+      </c>
+      <c r="X4" s="12">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="12">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="12">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>3</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="13">
+        <v>3</v>
+      </c>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>3</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <v>0</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15">
+        <v>0</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0</v>
+      </c>
+      <c r="W5" s="15">
+        <v>0</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="15">
+        <v>0</v>
+      </c>
+      <c r="N6" s="15">
+        <v>0</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15">
+        <v>0</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0</v>
+      </c>
+      <c r="W6" s="15">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0</v>
+      </c>
+      <c r="T7" s="15">
+        <v>0</v>
+      </c>
+      <c r="U7" s="9">
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <v>0</v>
+      </c>
+      <c r="W7" s="15">
+        <v>0</v>
+      </c>
+      <c r="X7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="15">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="AY2:BJ2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="AA2:AL2"/>
+    <mergeCell ref="AM2:AX2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5590460-C8AD-4B8B-AD99-70907047F648}">
   <dimension ref="A1:V6"/>
   <sheetViews>
@@ -4339,2131 +6193,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8170294-30C4-4AD3-BC12-771BD8A4BF77}">
-  <dimension ref="A3:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9">
-        <v>529.20000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9">
-        <v>374.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="9">
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B03A829-9C2C-4441-A960-5880B3405C0F}">
-  <dimension ref="A3:BJ8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="48" max="50" width="0" hidden="1" customWidth="1"/>
-    <col min="54" max="62" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="21">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="20">
-        <v>2</v>
-      </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="24">
-        <v>3</v>
-      </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="27">
-        <v>4</v>
-      </c>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="17">
-        <v>5</v>
-      </c>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="18"/>
-      <c r="BB3" s="18"/>
-      <c r="BC3" s="18"/>
-      <c r="BD3" s="18"/>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
-      <c r="BG3" s="18"/>
-      <c r="BH3" s="18"/>
-      <c r="BI3" s="18"/>
-      <c r="BJ3" s="19"/>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="38">
-        <v>1</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="40">
-        <v>2</v>
-      </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41">
-        <v>3</v>
-      </c>
-      <c r="J4" s="42"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="41">
-        <v>4</v>
-      </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="39">
-        <v>1</v>
-      </c>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="40">
-        <v>2</v>
-      </c>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="38">
-        <v>3</v>
-      </c>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="30"/>
-      <c r="BA4" s="30"/>
-      <c r="BB4" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC4" s="30"/>
-      <c r="BD4" s="30"/>
-      <c r="BE4" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF4" s="30"/>
-      <c r="BG4" s="30"/>
-      <c r="BH4" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI4" s="30"/>
-      <c r="BJ4" s="30"/>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>2</v>
-      </c>
-      <c r="H5" s="11">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
-        <v>2</v>
-      </c>
-      <c r="K5" s="11">
-        <v>3</v>
-      </c>
-      <c r="L5" s="11">
-        <v>1</v>
-      </c>
-      <c r="M5" s="11">
-        <v>2</v>
-      </c>
-      <c r="N5" s="11">
-        <v>3</v>
-      </c>
-      <c r="O5" s="12">
-        <v>1</v>
-      </c>
-      <c r="P5" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>3</v>
-      </c>
-      <c r="R5" s="11">
-        <v>1</v>
-      </c>
-      <c r="S5" s="11">
-        <v>2</v>
-      </c>
-      <c r="T5" s="11">
-        <v>3</v>
-      </c>
-      <c r="U5" s="10">
-        <v>1</v>
-      </c>
-      <c r="V5" s="10">
-        <v>2</v>
-      </c>
-      <c r="W5" s="10">
-        <v>3</v>
-      </c>
-      <c r="X5" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN5" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO5" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP5" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR5" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX5" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY5" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA5" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB5" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD5" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE5" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF5" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG5" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH5" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI5" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ5" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>1</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="15"/>
-      <c r="AO6" s="15"/>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="15"/>
-      <c r="AV6" s="15"/>
-      <c r="AW6" s="15"/>
-      <c r="AX6" s="15"/>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="15"/>
-      <c r="BB6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="15"/>
-      <c r="AO7" s="15"/>
-      <c r="AP7" s="9"/>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="9"/>
-      <c r="AT7" s="9"/>
-      <c r="AU7" s="15"/>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="9"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="9"/>
-      <c r="AT8" s="9"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="15"/>
-      <c r="AW8" s="15"/>
-      <c r="AX8" s="15"/>
-      <c r="AY8" s="9"/>
-      <c r="AZ8" s="16"/>
-      <c r="BA8" s="15"/>
-      <c r="BB8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BC8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BE8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BF8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BG8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BH8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="15">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="15">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AY3:BJ3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="C3:N3"/>
-    <mergeCell ref="O3:Z3"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="AM3:AX3"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="BE4:BG4"/>
-    <mergeCell ref="BH4:BJ4"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AS4:AU4"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AY4:BA4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
-  <dimension ref="A2:BJ9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="8"/>
-    <col min="2" max="2" width="8.88671875" style="8" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" style="8"/>
-    <col min="6" max="8" width="8.88671875" style="8" customWidth="1"/>
-    <col min="9" max="14" width="8.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="15" max="35" width="8.88671875" style="8"/>
-    <col min="36" max="38" width="8.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="39" max="47" width="8.88671875" style="8"/>
-    <col min="48" max="50" width="8.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="51" max="53" width="8.88671875" style="8"/>
-    <col min="54" max="62" width="8.88671875" style="8" hidden="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="20">
-        <v>2</v>
-      </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20"/>
-      <c r="AA2" s="24">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="25"/>
-      <c r="AC2" s="25"/>
-      <c r="AD2" s="25"/>
-      <c r="AE2" s="25"/>
-      <c r="AF2" s="25"/>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="27">
-        <v>4</v>
-      </c>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="28"/>
-      <c r="AR2" s="28"/>
-      <c r="AS2" s="28"/>
-      <c r="AT2" s="28"/>
-      <c r="AU2" s="28"/>
-      <c r="AV2" s="28"/>
-      <c r="AW2" s="28"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="17">
-        <v>5</v>
-      </c>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="19"/>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>3</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>2</v>
-      </c>
-      <c r="H4" s="11">
-        <v>3</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11">
-        <v>3</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1</v>
-      </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
-        <v>3</v>
-      </c>
-      <c r="O4" s="12">
-        <v>1</v>
-      </c>
-      <c r="P4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>3</v>
-      </c>
-      <c r="R4" s="11">
-        <v>1</v>
-      </c>
-      <c r="S4" s="11">
-        <v>2</v>
-      </c>
-      <c r="T4" s="11">
-        <v>3</v>
-      </c>
-      <c r="U4" s="10">
-        <v>1</v>
-      </c>
-      <c r="V4" s="10">
-        <v>2</v>
-      </c>
-      <c r="W4" s="10">
-        <v>3</v>
-      </c>
-      <c r="X4" s="12">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AD4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>3</v>
-      </c>
-      <c r="AM4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="14">
-        <v>3</v>
-      </c>
-      <c r="AP4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="13">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>3</v>
-      </c>
-      <c r="AS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AT4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="AW4" s="10">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="10">
-        <v>3</v>
-      </c>
-      <c r="AY4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BB4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BE4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="14">
-        <v>3</v>
-      </c>
-      <c r="BH4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BI4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>0</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
-        <v>0</v>
-      </c>
-      <c r="L5" s="15">
-        <v>0</v>
-      </c>
-      <c r="M5" s="15">
-        <v>0</v>
-      </c>
-      <c r="N5" s="15">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>0</v>
-      </c>
-      <c r="R5" s="9">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9">
-        <v>0</v>
-      </c>
-      <c r="T5" s="15">
-        <v>0</v>
-      </c>
-      <c r="U5" s="9">
-        <v>0</v>
-      </c>
-      <c r="V5" s="9">
-        <v>0</v>
-      </c>
-      <c r="W5" s="15">
-        <v>0</v>
-      </c>
-      <c r="X5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15">
-        <v>0</v>
-      </c>
-      <c r="M6" s="15">
-        <v>0</v>
-      </c>
-      <c r="N6" s="15">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="15">
-        <v>0</v>
-      </c>
-      <c r="U6" s="9">
-        <v>0</v>
-      </c>
-      <c r="V6" s="9">
-        <v>0</v>
-      </c>
-      <c r="W6" s="15">
-        <v>0</v>
-      </c>
-      <c r="X6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
-        <v>0</v>
-      </c>
-      <c r="L7" s="15">
-        <v>0</v>
-      </c>
-      <c r="M7" s="15">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>0</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0</v>
-      </c>
-      <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="15">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
-      <c r="W7" s="15">
-        <v>0</v>
-      </c>
-      <c r="X7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>4</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>0</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15">
-        <v>0</v>
-      </c>
-      <c r="M8" s="15">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0</v>
-      </c>
-      <c r="R8" s="9">
-        <v>0</v>
-      </c>
-      <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="15">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0</v>
-      </c>
-      <c r="W8" s="15">
-        <v>0</v>
-      </c>
-      <c r="X8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15">
-        <v>0</v>
-      </c>
-      <c r="L9" s="15">
-        <v>0</v>
-      </c>
-      <c r="M9" s="15">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>0</v>
-      </c>
-      <c r="R9" s="9">
-        <v>0</v>
-      </c>
-      <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="15">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="15">
-        <v>0</v>
-      </c>
-      <c r="X9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="16">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="15">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="AY2:BJ2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="AA2:AL2"/>
-    <mergeCell ref="AM2:AX2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="I9" sqref="I9:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6660,4 +6395,208 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2A5597-CC42-4FD7-B1A1-C17BDC0706FE}">
+  <dimension ref="A2:V6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="20">
+        <v>2</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="24">
+        <v>3</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27">
+        <v>4</v>
+      </c>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="17">
+        <v>5</v>
+      </c>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12">
+        <v>4</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12">
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <v>3</v>
+      </c>
+      <c r="N3" s="15">
+        <v>4</v>
+      </c>
+      <c r="O3" s="14">
+        <v>1</v>
+      </c>
+      <c r="P3" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>3</v>
+      </c>
+      <c r="R3" s="15">
+        <v>4</v>
+      </c>
+      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="T3" s="15">
+        <v>2</v>
+      </c>
+      <c r="U3" s="15">
+        <v>3</v>
+      </c>
+      <c r="V3" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SS_dataV6.xlsx
+++ b/SS_dataV6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC103B3-50DC-40E3-8A49-316617FC9400}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FA8D8-D233-4A70-ABEB-1C15D6215DEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <sheet name="SingleConstants" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="33">
   <si>
     <t>j</t>
   </si>
@@ -144,6 +143,9 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>0.6</t>
   </si>
 </sst>
 </file>
@@ -354,6 +356,24 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,24 +396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1283,8 +1285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
   <dimension ref="A2:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1398,78 +1400,198 @@
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="C4" s="9">
+        <v>3267</v>
+      </c>
+      <c r="D4" s="9">
+        <v>8122</v>
+      </c>
+      <c r="E4" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="9">
+        <v>128</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8122</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3267</v>
+      </c>
+      <c r="J4" s="9">
+        <v>128</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1183</v>
+      </c>
+      <c r="L4" s="9">
+        <v>128</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1183</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="9">
+        <v>9000</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1183</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>3267</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="S4" s="9">
+        <v>9000</v>
+      </c>
+      <c r="T4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="U4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="V4" s="15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
+      <c r="C5" s="9">
+        <v>2218</v>
+      </c>
+      <c r="D5" s="9">
+        <v>18650</v>
+      </c>
+      <c r="E5" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="9">
+        <v>128</v>
+      </c>
+      <c r="H5" s="9">
+        <v>18650</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2218</v>
+      </c>
+      <c r="J5" s="9">
+        <v>128</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1183</v>
+      </c>
+      <c r="L5" s="9">
+        <v>128</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1183</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1183</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2218</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="S5" s="16">
+        <v>9000</v>
+      </c>
+      <c r="T5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="U5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="V5" s="15">
+        <v>1000</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
+      <c r="C6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="9">
+        <v>128</v>
+      </c>
+      <c r="H6" s="15">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="9">
+        <v>128</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1183</v>
+      </c>
+      <c r="L6" s="9">
+        <v>128</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1183</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1183</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="U6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="V6" s="15">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1488,7 +1610,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,78 +1724,198 @@
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="C4" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="15">
+        <v>1</v>
+      </c>
+      <c r="U4" s="15">
+        <v>1</v>
+      </c>
+      <c r="V4" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
+      <c r="C5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="15">
+        <v>1</v>
+      </c>
+      <c r="U5" s="15">
+        <v>1</v>
+      </c>
+      <c r="V5" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1</v>
+      </c>
+      <c r="T6" s="15">
+        <v>1</v>
+      </c>
+      <c r="U6" s="15">
+        <v>1</v>
+      </c>
+      <c r="V6" s="15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1977,8 +2219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A225510A-AA85-4DB0-9F23-80E69C775E1F}">
   <dimension ref="A3:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,106 +2468,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="32">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="30">
+        <v>3</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="40">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -3457,16 +3699,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -3482,6 +3714,16 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3592,106 +3834,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="32">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="30">
+        <v>3</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="40">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -4823,6 +5065,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -4839,15 +5090,6 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4950,106 +5192,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="32">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="30">
+        <v>3</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="40">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -5805,6 +6047,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -5821,15 +6072,6 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6003,7 +6245,7 @@
         <v>250</v>
       </c>
       <c r="H4" s="9">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I4" s="9">
         <v>6700</v>

--- a/SS_dataV6.xlsx
+++ b/SS_dataV6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FA8D8-D233-4A70-ABEB-1C15D6215DEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C5221-799D-43B3-9F87-E695E594A1BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -356,24 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,6 +378,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1081,332 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:V6"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="20">
+        <v>2</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="24">
+        <v>3</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27">
+        <v>4</v>
+      </c>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="17">
+        <v>5</v>
+      </c>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="19"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3</v>
+      </c>
+      <c r="F3" s="15">
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="10">
+        <v>3</v>
+      </c>
+      <c r="J3" s="12">
+        <v>4</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1</v>
+      </c>
+      <c r="L3" s="12">
+        <v>2</v>
+      </c>
+      <c r="M3" s="13">
+        <v>3</v>
+      </c>
+      <c r="N3" s="15">
+        <v>4</v>
+      </c>
+      <c r="O3" s="14">
+        <v>1</v>
+      </c>
+      <c r="P3" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>3</v>
+      </c>
+      <c r="R3" s="15">
+        <v>4</v>
+      </c>
+      <c r="S3" s="14">
+        <v>1</v>
+      </c>
+      <c r="T3" s="15">
+        <v>2</v>
+      </c>
+      <c r="U3" s="15">
+        <v>3</v>
+      </c>
+      <c r="V3" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3267</v>
+      </c>
+      <c r="D4" s="9">
+        <v>8122</v>
+      </c>
+      <c r="E4" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="9">
+        <v>128</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8122</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3267</v>
+      </c>
+      <c r="J4" s="9">
+        <v>128</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1183</v>
+      </c>
+      <c r="L4" s="9">
+        <v>128</v>
+      </c>
+      <c r="M4" s="9">
+        <v>1183</v>
+      </c>
+      <c r="N4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="9">
+        <v>9000</v>
+      </c>
+      <c r="P4" s="9">
+        <v>1183</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>3267</v>
+      </c>
+      <c r="R4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="S4" s="9">
+        <v>9000</v>
+      </c>
+      <c r="T4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="U4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="V4" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2218</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1865</v>
+      </c>
+      <c r="E5" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="9">
+        <v>128</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1865</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2218</v>
+      </c>
+      <c r="J5" s="9">
+        <v>128</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1183</v>
+      </c>
+      <c r="L5" s="9">
+        <v>128</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1183</v>
+      </c>
+      <c r="N5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="P5" s="9">
+        <v>1183</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2218</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="S5" s="16">
+        <v>9000</v>
+      </c>
+      <c r="T5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="U5" s="15">
+        <v>1000</v>
+      </c>
+      <c r="V5" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="15">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F6" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="9">
+        <v>128</v>
+      </c>
+      <c r="H6" s="15">
+        <v>5000</v>
+      </c>
+      <c r="I6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="9">
+        <v>128</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1183</v>
+      </c>
+      <c r="L6" s="9">
+        <v>128</v>
+      </c>
+      <c r="M6" s="9">
+        <v>1183</v>
+      </c>
+      <c r="N6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="P6" s="9">
+        <v>1183</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="R6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="S6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="U6" s="15">
+        <v>1000</v>
+      </c>
+      <c r="V6" s="15">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:V2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
+  <dimension ref="A2:V6"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1268,330 +1592,6 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="S2:V2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A28449-D94E-4909-B508-C0F95C8C63AA}">
-  <dimension ref="A2:V6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="20">
-        <v>2</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="24">
-        <v>3</v>
-      </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="27">
-        <v>4</v>
-      </c>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="17">
-        <v>5</v>
-      </c>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="19"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15">
-        <v>3</v>
-      </c>
-      <c r="F3" s="15">
-        <v>4</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>2</v>
-      </c>
-      <c r="I3" s="10">
-        <v>3</v>
-      </c>
-      <c r="J3" s="12">
-        <v>4</v>
-      </c>
-      <c r="K3" s="13">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2</v>
-      </c>
-      <c r="M3" s="13">
-        <v>3</v>
-      </c>
-      <c r="N3" s="15">
-        <v>4</v>
-      </c>
-      <c r="O3" s="14">
-        <v>1</v>
-      </c>
-      <c r="P3" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>3</v>
-      </c>
-      <c r="R3" s="15">
-        <v>4</v>
-      </c>
-      <c r="S3" s="14">
-        <v>1</v>
-      </c>
-      <c r="T3" s="15">
-        <v>2</v>
-      </c>
-      <c r="U3" s="15">
-        <v>3</v>
-      </c>
-      <c r="V3" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>3267</v>
-      </c>
-      <c r="D4" s="9">
-        <v>8122</v>
-      </c>
-      <c r="E4" s="15">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="15">
-        <v>5000</v>
-      </c>
-      <c r="G4" s="9">
-        <v>128</v>
-      </c>
-      <c r="H4" s="9">
-        <v>8122</v>
-      </c>
-      <c r="I4" s="9">
-        <v>3267</v>
-      </c>
-      <c r="J4" s="9">
-        <v>128</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1183</v>
-      </c>
-      <c r="L4" s="9">
-        <v>128</v>
-      </c>
-      <c r="M4" s="9">
-        <v>1183</v>
-      </c>
-      <c r="N4" s="15">
-        <v>1000</v>
-      </c>
-      <c r="O4" s="9">
-        <v>9000</v>
-      </c>
-      <c r="P4" s="9">
-        <v>1183</v>
-      </c>
-      <c r="Q4" s="9">
-        <v>3267</v>
-      </c>
-      <c r="R4" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S4" s="9">
-        <v>9000</v>
-      </c>
-      <c r="T4" s="15">
-        <v>1000</v>
-      </c>
-      <c r="U4" s="15">
-        <v>1000</v>
-      </c>
-      <c r="V4" s="15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2218</v>
-      </c>
-      <c r="D5" s="9">
-        <v>18650</v>
-      </c>
-      <c r="E5" s="15">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="15">
-        <v>5000</v>
-      </c>
-      <c r="G5" s="9">
-        <v>128</v>
-      </c>
-      <c r="H5" s="9">
-        <v>18650</v>
-      </c>
-      <c r="I5" s="9">
-        <v>2218</v>
-      </c>
-      <c r="J5" s="9">
-        <v>128</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1183</v>
-      </c>
-      <c r="L5" s="9">
-        <v>128</v>
-      </c>
-      <c r="M5" s="9">
-        <v>1183</v>
-      </c>
-      <c r="N5" s="15">
-        <v>1000</v>
-      </c>
-      <c r="O5" s="15">
-        <v>1000</v>
-      </c>
-      <c r="P5" s="9">
-        <v>1183</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>2218</v>
-      </c>
-      <c r="R5" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S5" s="16">
-        <v>9000</v>
-      </c>
-      <c r="T5" s="15">
-        <v>1000</v>
-      </c>
-      <c r="U5" s="15">
-        <v>1000</v>
-      </c>
-      <c r="V5" s="15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="15">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="15">
-        <v>5000</v>
-      </c>
-      <c r="F6" s="15">
-        <v>5000</v>
-      </c>
-      <c r="G6" s="9">
-        <v>128</v>
-      </c>
-      <c r="H6" s="15">
-        <v>5000</v>
-      </c>
-      <c r="I6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="9">
-        <v>128</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1183</v>
-      </c>
-      <c r="L6" s="9">
-        <v>128</v>
-      </c>
-      <c r="M6" s="9">
-        <v>1183</v>
-      </c>
-      <c r="N6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="O6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1183</v>
-      </c>
-      <c r="Q6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="R6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="S6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="T6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="U6" s="15">
-        <v>1000</v>
-      </c>
-      <c r="V6" s="15">
-        <v>1000</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2468,106 +2468,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31">
-        <v>2</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="33">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="33">
-        <v>4</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="32">
-        <v>1</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31">
-        <v>2</v>
-      </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="30">
-        <v>3</v>
-      </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="32">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="32">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="37">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="30">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
+        <v>4</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -3699,6 +3699,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -3714,16 +3724,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3834,106 +3834,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31">
-        <v>2</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="33">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="33">
-        <v>4</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="32">
-        <v>1</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31">
-        <v>2</v>
-      </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="30">
-        <v>3</v>
-      </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="32">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="32">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="37">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="30">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
+        <v>4</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -5065,15 +5065,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -5090,6 +5081,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5192,106 +5192,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31">
-        <v>2</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="33">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="33">
-        <v>4</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="32">
-        <v>1</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31">
-        <v>2</v>
-      </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="30">
-        <v>3</v>
-      </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="32">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="32">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="37">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="30">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
+        <v>4</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -6047,15 +6047,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -6072,6 +6063,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6082,7 +6082,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV6.xlsx
+++ b/SS_dataV6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83C5221-799D-43B3-9F87-E695E594A1BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4689731-1031-4BD6-9FC1-36ABA5A1AB39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41172" yWindow="-276" windowWidth="23256" windowHeight="12576" tabRatio="897" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="897" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -356,6 +356,24 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,24 +396,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,13 +1248,13 @@
         <v>9000</v>
       </c>
       <c r="T4" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="U4" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="V4" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1314,13 +1314,13 @@
         <v>9000</v>
       </c>
       <c r="T5" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="U5" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="V5" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1377,16 +1377,16 @@
         <v>1000</v>
       </c>
       <c r="S6" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="T6" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="U6" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="V6" s="15">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1406,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,7 +1610,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2374,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:BJ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2468,106 +2468,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="32">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="30">
+        <v>3</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="40">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -3699,16 +3699,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -3724,6 +3714,16 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3733,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:BJ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3834,106 +3834,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="32">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="30">
+        <v>3</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="40">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AB9" s="9">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AH9" s="9">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="AP9" s="9">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="AQ9" s="9">
         <v>0</v>
@@ -5065,6 +5065,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -5081,15 +5090,6 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5192,106 +5192,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="32">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="30">
+        <v>3</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="40">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -6047,6 +6047,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -6063,15 +6072,6 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6082,7 +6082,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6440,7 +6440,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:L17"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV6.xlsx
+++ b/SS_dataV6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4689731-1031-4BD6-9FC1-36ABA5A1AB39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F7D54-F149-487A-AF11-DB28807E37E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="897" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="897" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1934,7 +1934,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C8"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,7 +2088,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2220,7 +2220,7 @@
   <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2253,10 +2253,16 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3733,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE6DC42-E670-4A71-9E46-F6E6C7ECF4C2}">
   <dimension ref="A2:BJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AE26" sqref="AE26"/>
     </sheetView>
   </sheetViews>
@@ -5100,7 +5106,7 @@
   <dimension ref="A2:BJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:Z8"/>
+      <selection activeCell="BN6" sqref="BN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5489,22 +5495,22 @@
         <v>21</v>
       </c>
       <c r="C5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5" s="15">
         <v>0</v>
@@ -5525,67 +5531,67 @@
         <v>0</v>
       </c>
       <c r="O5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ5" s="15">
         <v>0</v>
@@ -5597,31 +5603,31 @@
         <v>0</v>
       </c>
       <c r="AM5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR5" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT5" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV5" s="15">
         <v>0</v>
@@ -5633,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="AY5" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ5" s="16">
         <v>0</v>
       </c>
       <c r="BA5" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB5" s="15">
         <v>0</v>
@@ -5677,22 +5683,22 @@
         <v>22</v>
       </c>
       <c r="C6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="15">
         <v>0</v>
@@ -5713,67 +5719,67 @@
         <v>0</v>
       </c>
       <c r="O6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ6" s="15">
         <v>0</v>
@@ -5785,31 +5791,31 @@
         <v>0</v>
       </c>
       <c r="AM6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR6" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV6" s="15">
         <v>0</v>
@@ -5821,13 +5827,13 @@
         <v>0</v>
       </c>
       <c r="AY6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ6" s="16">
         <v>0</v>
       </c>
       <c r="BA6" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB6" s="15">
         <v>0</v>
@@ -5865,22 +5871,22 @@
         <v>23</v>
       </c>
       <c r="C7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="15">
         <v>0</v>
@@ -5901,67 +5907,67 @@
         <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="15">
         <v>0</v>
@@ -5973,31 +5979,31 @@
         <v>0</v>
       </c>
       <c r="AM7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR7" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT7" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV7" s="15">
         <v>0</v>
@@ -6009,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="AY7" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ7" s="16">
         <v>0</v>
       </c>
       <c r="BA7" s="15">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB7" s="15">
         <v>0</v>
@@ -6440,7 +6446,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6554,78 +6560,198 @@
       <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="C4" s="9">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9">
+        <v>100</v>
+      </c>
+      <c r="E4" s="15">
+        <v>100</v>
+      </c>
+      <c r="F4" s="15">
+        <v>100</v>
+      </c>
+      <c r="G4" s="9">
+        <v>20</v>
+      </c>
+      <c r="H4" s="9">
+        <v>100</v>
+      </c>
+      <c r="I4" s="9">
+        <v>20</v>
+      </c>
+      <c r="J4" s="9">
+        <v>20</v>
+      </c>
+      <c r="K4" s="9">
+        <v>60</v>
+      </c>
+      <c r="L4" s="9">
+        <v>20</v>
+      </c>
+      <c r="M4" s="9">
+        <v>60</v>
+      </c>
+      <c r="N4" s="15">
+        <v>100</v>
+      </c>
+      <c r="O4" s="9">
+        <v>100</v>
+      </c>
+      <c r="P4" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>20</v>
+      </c>
+      <c r="R4" s="15">
+        <v>100</v>
+      </c>
+      <c r="S4" s="9">
+        <v>100</v>
+      </c>
+      <c r="T4" s="15">
+        <v>100</v>
+      </c>
+      <c r="U4" s="15">
+        <v>100</v>
+      </c>
+      <c r="V4" s="15">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
+      <c r="C5" s="9">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9">
+        <v>100</v>
+      </c>
+      <c r="E5" s="15">
+        <v>100</v>
+      </c>
+      <c r="F5" s="15">
+        <v>100</v>
+      </c>
+      <c r="G5" s="9">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9">
+        <v>100</v>
+      </c>
+      <c r="I5" s="9">
+        <v>20</v>
+      </c>
+      <c r="J5" s="9">
+        <v>20</v>
+      </c>
+      <c r="K5" s="9">
+        <v>60</v>
+      </c>
+      <c r="L5" s="9">
+        <v>20</v>
+      </c>
+      <c r="M5" s="9">
+        <v>60</v>
+      </c>
+      <c r="N5" s="15">
+        <v>100</v>
+      </c>
+      <c r="O5" s="15">
+        <v>100</v>
+      </c>
+      <c r="P5" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>20</v>
+      </c>
+      <c r="R5" s="15">
+        <v>100</v>
+      </c>
+      <c r="S5" s="16">
+        <v>100</v>
+      </c>
+      <c r="T5" s="15">
+        <v>100</v>
+      </c>
+      <c r="U5" s="15">
+        <v>100</v>
+      </c>
+      <c r="V5" s="15">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
+      <c r="C6" s="15">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15">
+        <v>100</v>
+      </c>
+      <c r="E6" s="15">
+        <v>100</v>
+      </c>
+      <c r="F6" s="15">
+        <v>100</v>
+      </c>
+      <c r="G6" s="9">
+        <v>20</v>
+      </c>
+      <c r="H6" s="15">
+        <v>100</v>
+      </c>
+      <c r="I6" s="15">
+        <v>20</v>
+      </c>
+      <c r="J6" s="9">
+        <v>20</v>
+      </c>
+      <c r="K6" s="9">
+        <v>60</v>
+      </c>
+      <c r="L6" s="9">
+        <v>20</v>
+      </c>
+      <c r="M6" s="9">
+        <v>60</v>
+      </c>
+      <c r="N6" s="15">
+        <v>100</v>
+      </c>
+      <c r="O6" s="15">
+        <v>100</v>
+      </c>
+      <c r="P6" s="9">
+        <v>60</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>20</v>
+      </c>
+      <c r="R6" s="15">
+        <v>100</v>
+      </c>
+      <c r="S6" s="15">
+        <v>100</v>
+      </c>
+      <c r="T6" s="15">
+        <v>100</v>
+      </c>
+      <c r="U6" s="15">
+        <v>100</v>
+      </c>
+      <c r="V6" s="15">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/SS_dataV6.xlsx
+++ b/SS_dataV6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7F7D54-F149-487A-AF11-DB28807E37E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657E9E9-3B87-4676-A067-6DCF49DAEF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="897" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22560" yWindow="4476" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -356,24 +356,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,6 +378,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1081,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA1D864-CDA3-4858-A315-A2C2DD1ACFA4}">
   <dimension ref="A2:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2474,106 +2474,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31">
-        <v>2</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="33">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="33">
-        <v>4</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="32">
-        <v>1</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31">
-        <v>2</v>
-      </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="30">
-        <v>3</v>
-      </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="32">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="32">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="37">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="30">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
+        <v>4</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -3705,6 +3705,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -3720,16 +3730,6 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3840,106 +3840,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31">
-        <v>2</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="33">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="33">
-        <v>4</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="32">
-        <v>1</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31">
-        <v>2</v>
-      </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="30">
-        <v>3</v>
-      </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="32">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="32">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="37">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="30">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
+        <v>4</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -5071,15 +5071,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -5096,6 +5087,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5198,106 +5198,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30">
-        <v>1</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31">
-        <v>2</v>
-      </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="33">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="33">
-        <v>4</v>
-      </c>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="32">
-        <v>1</v>
-      </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="31">
-        <v>2</v>
-      </c>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="30">
-        <v>3</v>
-      </c>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="32">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="43">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="32">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="43">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="37">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="43">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="30">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="40">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="42"/>
-      <c r="AY3" s="36">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
+      <c r="C3" s="38">
+        <v>1</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40">
+        <v>2</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41">
+        <v>3</v>
+      </c>
+      <c r="J3" s="42"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="41">
+        <v>4</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="39">
+        <v>1</v>
+      </c>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40">
+        <v>2</v>
+      </c>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="38">
+        <v>3</v>
+      </c>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="39">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="39">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="39"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="37">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="33"/>
+      <c r="AM3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="37">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="38">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="38"/>
+      <c r="AU3" s="38"/>
+      <c r="AV3" s="34">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="35"/>
+      <c r="AX3" s="36"/>
+      <c r="AY3" s="30">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="30"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -6053,15 +6053,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -6078,6 +6069,15 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6445,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
   <dimension ref="A2:V6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SS_dataV6.xlsx
+++ b/SS_dataV6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent Reurslag\School\Msc Thesis\Superstructure_repo\Superstructure_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657E9E9-3B87-4676-A067-6DCF49DAEF95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E838CB8E-A2DC-479A-AA5F-DF8336FE6550}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22560" yWindow="4476" windowWidth="30960" windowHeight="12204" tabRatio="897" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" tabRatio="897" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Superstructure a,j,k" sheetId="5" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="34">
   <si>
     <t>j</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>0.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -356,6 +359,24 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -378,24 +399,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +742,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1085,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,7 +1613,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1934,7 +1937,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2011,7 +2014,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2088,7 +2091,7 @@
   <dimension ref="A3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2165,7 +2168,7 @@
   <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2217,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A225510A-AA85-4DB0-9F23-80E69C775E1F}">
-  <dimension ref="A3:C7"/>
+  <dimension ref="A3:AK32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK32" sqref="S13:AK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2263,6 +2266,11 @@
       </c>
       <c r="B7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="37:37" x14ac:dyDescent="0.3">
+      <c r="AK32" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2380,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F94ACA6-9F12-4801-81E6-324A98CD1551}">
   <dimension ref="A2:BJ9"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU27" sqref="AU27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2474,106 +2482,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="32">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="30">
+        <v>3</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="40">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -3705,16 +3713,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="C2:N2"/>
-    <mergeCell ref="O2:Z2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="X3:Z3"/>
     <mergeCell ref="BB3:BD3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="BH3:BJ3"/>
@@ -3730,6 +3728,16 @@
     <mergeCell ref="AD3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="O2:Z2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="X3:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3740,7 +3748,7 @@
   <dimension ref="A2:BJ9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3840,106 +3848,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="32">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="30">
+        <v>3</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="40">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -5071,6 +5079,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -5087,15 +5104,6 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5106,7 +5114,7 @@
   <dimension ref="A2:BJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BN6" sqref="BN6"/>
+      <selection activeCell="AS6" sqref="AS6:AS8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5198,106 +5206,106 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38">
-        <v>1</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40">
-        <v>2</v>
-      </c>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41">
-        <v>3</v>
-      </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="41">
-        <v>4</v>
-      </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="39">
-        <v>1</v>
-      </c>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="40">
-        <v>2</v>
-      </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="38">
-        <v>3</v>
-      </c>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="39">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="37">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="37">
-        <v>3</v>
-      </c>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="31">
-        <v>4</v>
-      </c>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="37">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="37"/>
-      <c r="AR3" s="37"/>
-      <c r="AS3" s="38">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="38"/>
-      <c r="AU3" s="38"/>
-      <c r="AV3" s="34">
-        <v>4</v>
-      </c>
-      <c r="AW3" s="35"/>
-      <c r="AX3" s="36"/>
-      <c r="AY3" s="30">
-        <v>1</v>
-      </c>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30">
-        <v>3</v>
-      </c>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30">
-        <v>4</v>
-      </c>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="30"/>
+      <c r="C3" s="30">
+        <v>1</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31">
+        <v>2</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="33">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="33">
+        <v>4</v>
+      </c>
+      <c r="M3" s="34"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="32">
+        <v>1</v>
+      </c>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31">
+        <v>2</v>
+      </c>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="30">
+        <v>3</v>
+      </c>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="32">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="43">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="43">
+        <v>3</v>
+      </c>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="37">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="43">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="30">
+        <v>3</v>
+      </c>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="40">
+        <v>4</v>
+      </c>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="36">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36">
+        <v>3</v>
+      </c>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36">
+        <v>4</v>
+      </c>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -6053,6 +6061,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="BB3:BD3"/>
+    <mergeCell ref="BE3:BG3"/>
+    <mergeCell ref="BH3:BJ3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AS3:AU3"/>
+    <mergeCell ref="AV3:AX3"/>
+    <mergeCell ref="AY3:BA3"/>
     <mergeCell ref="AY2:BJ2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
@@ -6069,15 +6086,6 @@
     <mergeCell ref="X3:Z3"/>
     <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="BB3:BD3"/>
-    <mergeCell ref="BE3:BG3"/>
-    <mergeCell ref="BH3:BJ3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AU3"/>
-    <mergeCell ref="AV3:AX3"/>
-    <mergeCell ref="AY3:BA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6088,7 +6096,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6445,8 +6453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF243-CEC2-4934-A255-3B8397B564B1}">
   <dimension ref="A2:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6770,7 +6778,7 @@
   <dimension ref="A2:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
